--- a/data/trans_camb/P37_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-8,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-13,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-8,84</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 10,24</t>
+          <t>-23,3; 2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 12,88</t>
+          <t>-14,75; 9,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 9,21</t>
+          <t>-32,31; 2,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 10,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 15,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 7,47</t>
+          <t>-8,6; 11,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 7,69</t>
+          <t>-7,54; 11,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 9,99</t>
+          <t>-17,55; 7,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,57; 5,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 7,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-19,63; 1,23</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-13,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-20,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>-9,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,22%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-14,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 19,55</t>
+          <t>-32,82; 4,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 24,44</t>
+          <t>-21,35; 18,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 17,39</t>
+          <t>-48,12; 2,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 22,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 32,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 15,17</t>
+          <t>-13,66; 23,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 14,6</t>
+          <t>-12,51; 23,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 18,8</t>
+          <t>-28,13; 14,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 11,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,83; 9,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-13,46; 13,56</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-31,08; 1,95</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-4,02</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-1,66</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,75</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,98</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-7,13</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,11</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 8,98</t>
+          <t>-6,13; 10,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 5,1</t>
+          <t>-8,84; 7,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 2,67</t>
+          <t>-12,56; 5,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -0,76</t>
+          <t>-8,94; 5,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,04</t>
+          <t>-12,15; 1,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 1,61</t>
+          <t>-13,74; 2,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -1,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,1; 5,92</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 2,24</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 1,07</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-6,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>-8,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-5,03%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-8,2%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 14,8</t>
+          <t>-9,07; 18,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 8,27</t>
+          <t>-13,15; 12,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 4,27</t>
+          <t>-18,67; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 2,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -1,12</t>
+          <t>-13,76; 9,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 10,0</t>
+          <t>-18,5; 1,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 2,51</t>
+          <t>-20,86; 3,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -1,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-7,86; 10,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 3,76</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,69; 1,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,77</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,87</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 8,45</t>
+          <t>-8,0; 8,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 7,68</t>
+          <t>-7,63; 8,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 2,23</t>
+          <t>-14,15; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,55; -1,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,03; -1,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -2,98</t>
+          <t>-12,05; 1,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,03</t>
+          <t>-11,3; 1,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 0,84</t>
+          <t>-10,93; 2,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; -3,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 2,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 3,02</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-10,38; 0,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>-7,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-5,79%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,38%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-6,59%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 13,09</t>
+          <t>-10,93; 14,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 11,86</t>
+          <t>-10,24; 13,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,05; 3,16</t>
+          <t>-19,52; 7,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,24; -2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -4,42</t>
+          <t>-16,78; 2,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 1,6</t>
+          <t>-15,77; 2,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 1,22</t>
+          <t>-15,17; 4,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; -5,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-11,43; 3,65</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 4,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 1,44</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,56</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,6</t>
+          <t>0,25; 16,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -0,72</t>
+          <t>-5,72; 11,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -2,85</t>
+          <t>-7,45; 5,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 2,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 1,52</t>
+          <t>-6,46; 7,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; -3,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 9,44</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,93; 7,35</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,0%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 8,95</t>
+          <t>0,46; 27,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 6,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -1,22</t>
+          <t>-8,59; 19,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -4,56</t>
+          <t>-11,74; 9,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 2,44</t>
+          <t>-9,86; 12,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,23; -5,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 15,81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 12,44</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 6,0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 4,29</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 2,38</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,56; 1,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 0,39</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 0,22</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 2,81</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 1,53</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; -0,1</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,06%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-6,13%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-2,49%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-5,5%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 9,88</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 7,24</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 3,85</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 3,17</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 0,59</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 0,37</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 4,54</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 2,5</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; -0,18</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
